--- a/similarities/split_global/harmonic_similarity_timestamps_237.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_237.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>isophonics_268</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D']]</t>
+          <t>['G', 'E', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['C:maj', 'A:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:26.250000')]</t>
+          <t>('0:00:03.593854', '0:00:13.659705')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:02.360000')]</t>
+          <t>('0:01:24.701000', '0:01:30.135000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-268#t=3.593854</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=84.701</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:42.760000', '0:01:58.780000')]</t>
+          <t>('0:00:36.660000', '0:00:43.940000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:17.820000')]</t>
+          <t>('0:01:20.200000', '0:01:26.860000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=102.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=10.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'A']]</t>
+          <t>['G', 'C', 'G', 'D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>['A', 'D/5', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:05.734000', '0:00:08.399000')]</t>
+          <t>('0:00:03.826054', '0:00:16.608639')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
+          <t>('0:00:17.913000', '0:00:26.611000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=5.734']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>isophonics_215</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['F/A', 'C:7/G', 'F/A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:02.252358', '0:00:05.805011')]</t>
+          <t>('0:00:06.090000', '0:00:09.538163')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:56.880000', '0:01:04.440000')]</t>
+          <t>('0:05:02.760000', '0:05:04.820000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=2.252358']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-215#t=6.09</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=56.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=302.76</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:40.450000', '0:00:45.420000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:41.520000', '0:00:46.940000')]</t>
+          <t>('0:00:01.640000', '0:00:10.360000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=41.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+          <t>('0:01:27.680000', '0:01:38.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+          <t>('0:00:26.200000', '0:00:33.960000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=87.68</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_100</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F']]</t>
+          <t>['E:7/A', 'E:(3,5,b7,b9)/A', 'A:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'A#:maj/F']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:35.997000', '0:00:42.131000')]</t>
+          <t>('0:00:05.080000', '0:00:23.560000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.200000')]</t>
+          <t>('0:02:45.140000', '0:02:48.700000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-100#t=5.08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=165.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>['E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db', 'Ab', 'Db/5']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
+          <t>('0:00:08.413696', '0:00:18.293786')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:06.040000', '0:01:08.540000')]</t>
+          <t>('0:04:21.828000', '0:04:49.808000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=12.503707']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Db:min', 'Ab']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C/b7', 'F', 'F:min', 'C']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:00.620000', '0:02:04.490000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:37.053000', '0:00:43.202000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=120.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=37.053']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>['G:min', 'C:min', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:03.340000')]</t>
+          <t>('0:00:11.020000', '0:00:28.300000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:35.888000', '0:00:38.359000')]</t>
+          <t>('0:00:00.500000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=11.02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:01:21.280000', '0:01:29.420000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:04:43.300000', '0:04:50.060000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
+          <t>('0:00:01.920000', '0:00:08.320000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:05.140000')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>isophonics_143</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_39</t>
+          <t>jaah_46</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['D:7', 'A:7', 'D:7', 'A:7', 'D:7', 'A:7', 'D:7', 'A:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['Eb:7', 'Bb:7', 'Eb:7', 'Bb:7', 'Eb:7', 'Bb:7', 'Eb:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:20.860000', '0:02:24.100000')]</t>
+          <t>('0:00:36.728730', '0:00:52.297709')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:04.200000', '0:00:19.320000')]</t>
+          <t>('0:03:52.420000', '0:06:34.480000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=140.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-143#t=36.72873</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=4.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-46#t=232.42</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:25.140000', '0:00:42.540000'), ('0:00:01.440000', '0:00:06.840000'), ('0:00:49.080000', '0:00:57.840000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:35.820000', '0:00:37.760000'), ('0:00:08.460000', '0:00:13.460000'), ('0:00:35.600000', '0:00:37.240000')]</t>
+          <t>('0:00:00.320000', '0:00:09.540000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=25.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=49.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=35.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=35.6']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
